--- a/Bidding/B-PRO/Files/1D-1M-2m Kaltim.xlsx
+++ b/Bidding/B-PRO/Files/1D-1M-2m Kaltim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SANTJE\Kaltim\1D-Kaltim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\UKM Bridge\BBO Script\Bidding\B-PRO\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298F6AEE-3F4E-4B79-87A3-E3B614927325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EAF7A0-C967-4C0B-B850-AF2AA7A895EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1D-1M;2m" sheetId="1" r:id="rId1"/>
@@ -727,13 +727,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +744,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -752,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -760,7 +760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -771,7 +771,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -779,7 +779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -787,7 +787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -796,7 +796,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -825,7 +825,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -839,7 +839,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -859,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -879,7 +879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,7 +899,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -919,7 +919,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>12</v>
       </c>
@@ -939,7 +939,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>13</v>
       </c>
@@ -959,7 +959,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>14</v>
       </c>
@@ -979,7 +979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H22" t="s">
         <v>21</v>
       </c>
@@ -993,7 +993,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>43</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1159,7 +1159,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M33" t="s">
         <v>40</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>12</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>13</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>47</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -1464,12 +1464,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>13</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>21</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>54</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>8</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>11</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>12</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>13</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>14</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H80" t="s">
         <v>21</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
         <v>10</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>67</v>
       </c>
@@ -1827,17 +1827,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I90" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>86</v>
       </c>
